--- a/input/input_case/test.xlsx
+++ b/input/input_case/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23340" windowHeight="9450" activeTab="1"/>
+    <workbookView windowWidth="24300" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="tell1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>TestId</t>
   </si>
@@ -123,25 +123,56 @@
     <t>A02</t>
   </si>
   <si>
+    <t>P1</t>
+  </si>
+  <si>
     <t>1.Send 0x19C:PosnLmpOutpSts_R_Pbox=0</t>
   </si>
   <si>
+    <t>1.位置灯工作指示灯熄灭</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> TC_Telltale_</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>位置灯工作指示灯熄灭</t>
-    </r>
-  </si>
-  <si>
+      <t>Position_indicator_working_indicator</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
+      <t>_002</t>
+    </r>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>1.Send 0x19C:PosnLmpOutpSts_R_Pbox=1</t>
+  </si>
+  <si>
+    <t>1.位置灯工作指示灯点亮</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> TC_Telltale_</t>
     </r>
     <r>
@@ -158,77 +189,16 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>_002</t>
-    </r>
-  </si>
-  <si>
-    <t>BAT ON
-IGN ON
-默认配置</t>
-  </si>
-  <si>
-    <t>1.Set CAN ID $19C_PosnLmpOutpSts_R_Pbox=1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位置灯工作指示灯点亮</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> TC_Telltale_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Position_indicator_working_indicator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>_003</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">BAT ON
-IGN ON
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认配置</t>
-    </r>
-  </si>
-  <si>
-    <t>1.Set CAN ID $19C_PosnLmpOutpSts_R_Pbox=0
-2.Set CAN ID $19C_PosnLmpOutpSts_R_Pbox=1
-3.Set CAN ID $19C_PosnLmpOutpSts_R_Pbox=0</t>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>1.Send 0x19C:PosnLmpOutpSts_R_Pbox=0
+2.Send 0x19C:PosnLmpOutpSts_R_Pbox=1
+3.Send 0x19C:PosnLmpOutpSts_R_Pbox=0</t>
   </si>
   <si>
     <r>
@@ -369,11 +339,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -395,6 +365,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -403,7 +385,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,10 +400,94 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,106 +508,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -565,187 +535,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,50 +813,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,6 +842,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -929,6 +870,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -937,10 +907,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,138 +919,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1117,6 +1087,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1440,8 +1414,8 @@
   <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1455,7 +1429,7 @@
     <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:11">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1509,21 +1483,21 @@
       <c r="F2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8">
-        <v>1</v>
+      <c r="G2" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" ht="61.5" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -1532,7 +1506,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>15</v>
@@ -1540,21 +1514,21 @@
       <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8">
-        <v>2</v>
+      <c r="G3" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="7" t="s">
         <v>22</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" ht="114.75" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -1563,7 +1537,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>15</v>
@@ -1571,14 +1545,14 @@
       <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8">
-        <v>3</v>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1597,8 +1571,8 @@
   <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1649,7 +1623,7 @@
     </row>
     <row r="2" ht="61.5" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -1664,23 +1638,23 @@
         <v>15</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" ht="61.5" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -1689,29 +1663,29 @@
         <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="7" t="s">
         <v>22</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
     <row r="4" ht="114.75" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -1720,22 +1694,22 @@
         <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="8">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
